--- a/CPA/facturas/factura-en.xlsx
+++ b/CPA/facturas/factura-en.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="345" windowWidth="13980" windowHeight="7260"/>
@@ -12,20 +12,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">FACTURA!$B$1:$I$60</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
-    <t>+34 945 18 6888 / +34 620 83 80 70</t>
-  </si>
-  <si>
     <t xml:space="preserve">          Suma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sr. Javier Burgos Villameriel</t>
   </si>
   <si>
     <t xml:space="preserve"> CPA Vitoria 06  S.L.U</t>
@@ -128,9 +122,6 @@
     <t xml:space="preserve">                              BANK: Banco Santander</t>
   </si>
   <si>
-    <t xml:space="preserve">               I.B.A.N - ES88 0049 5475 8628 9504 0365</t>
-  </si>
-  <si>
     <t xml:space="preserve">                              B.I.C - BSCH ESMM</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>METHOD OF PAYMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">               I.B.A.N - ES20 2095 3112 29 1090452045  </t>
-  </si>
-  <si>
     <t xml:space="preserve">                              BANK: Kutxabank</t>
   </si>
   <si>
@@ -158,12 +146,6 @@
     <t xml:space="preserve">                         Empresa inscrita en el registro mercantil    Tomo:1246 Libro:0 Folio:134  Hoja:VI-11448  CIF:B01398213</t>
   </si>
   <si>
-    <t>C/Jose Domingo Olarte,25-7ºB  01010-Vitoria(Spain)</t>
-  </si>
-  <si>
-    <t>(ES)B01398213</t>
-  </si>
-  <si>
     <t>0351-15</t>
   </si>
   <si>
@@ -173,22 +155,40 @@
     <t>Parque Industrial Manuel da Mota, Lt 10/18- 3100-354 Pombal (Portugal)</t>
   </si>
   <si>
-    <t>236209150</t>
-  </si>
-  <si>
-    <t>Raquel Bregieiro</t>
-  </si>
-  <si>
-    <t>Ms. Raquel Bregieiro athorizes in name of the company that represents to review the existing Stock in Mercedes Benz Vitoria according to the following instructions;   Performed Works:   Comprobar funcionamiento tobera. Chek the function of the part.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cause:Comprobar funcionamiento tobera. Chek the function of the part.</t>
   </si>
   <si>
     <t xml:space="preserve">Invested Working Time from 2015  22 September </t>
   </si>
   <si>
-    <t>503078212</t>
+    <t>C/Falsa,25-7ºB  01010-Vitoria(Spain)</t>
+  </si>
+  <si>
+    <t>(ES)B6496486</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sr. Pepito Milfor</t>
+  </si>
+  <si>
+    <t>+34 944 5614654 / +34 656465454</t>
+  </si>
+  <si>
+    <t>56465111945</t>
+  </si>
+  <si>
+    <t>Dulio Merso</t>
+  </si>
+  <si>
+    <t>6546165484</t>
+  </si>
+  <si>
+    <t>Ms. Dulio Merso athorizes in name of the company that represents to review the existing Stock in Mercedes Benz Vitoria according to the following instructions;   Performed Works:   Comprobar funcionamiento tobera. Chek the function of the part.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               I.B.A.N - ES88 0049 5475 8628 5646416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               I.B.A.N - ES20 2095 3112 29 654656</t>
   </si>
 </sst>
 </file>
@@ -964,6 +964,239 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,42 +1226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1036,203 +1233,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,8 +1741,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25"/>
@@ -1761,16 +1761,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="B1" s="139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="142"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -1778,14 +1778,14 @@
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1793,14 +1793,14 @@
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -1808,14 +1808,14 @@
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -1823,14 +1823,14 @@
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1838,14 +1838,14 @@
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -1853,14 +1853,14 @@
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1868,14 +1868,14 @@
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1883,14 +1883,14 @@
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1898,14 +1898,14 @@
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1913,16 +1913,16 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
+      <c r="B11" s="143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1945,14 +1945,14 @@
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="131" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="131" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="132"/>
+      <c r="B13" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="74"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1994,21 +1994,21 @@
     </row>
     <row r="16" spans="1:13" s="61" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
       <c r="A16" s="57"/>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="135"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="145"/>
+      <c r="I16" s="58" t="s">
         <v>7</v>
-      </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="58" t="s">
-        <v>9</v>
       </c>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
@@ -2018,20 +2018,20 @@
     <row r="17" spans="1:13" s="14" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="88" t="s">
+      <c r="D17" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="89"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="149" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="150"/>
       <c r="I17" s="18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -2040,20 +2040,20 @@
     </row>
     <row r="18" spans="1:13" s="32" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
       <c r="A18" s="31"/>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="129"/>
+      <c r="G18" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="127"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="31"/>
@@ -2061,20 +2061,20 @@
     </row>
     <row r="19" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="82">
+      <c r="B19" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="86"/>
+      <c r="G19" s="122">
         <v>42291</v>
       </c>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="124"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
@@ -2098,21 +2098,21 @@
     </row>
     <row r="22" spans="1:13" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="A22" s="31"/>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="135"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="145"/>
+      <c r="I22" s="58" t="s">
         <v>7</v>
-      </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="58" t="s">
-        <v>9</v>
       </c>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
@@ -2123,21 +2123,21 @@
       <c r="A23" s="21">
         <v>0</v>
       </c>
-      <c r="B23" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="97"/>
+      <c r="B23" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="138"/>
+      <c r="D23" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="134"/>
       <c r="I23" s="18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
@@ -2146,20 +2146,20 @@
     </row>
     <row r="24" spans="1:13" s="61" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="A24" s="60"/>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="129"/>
+      <c r="G24" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="92"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="127"/>
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
       <c r="L24" s="60"/>
@@ -2167,20 +2167,20 @@
     </row>
     <row r="25" spans="1:13" s="14" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="82">
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="86"/>
+      <c r="G25" s="122">
         <v>42291</v>
       </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="124"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="13"/>
@@ -2203,16 +2203,16 @@
     </row>
     <row r="27" spans="1:13" s="32" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="A27" s="31"/>
-      <c r="B27" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="111"/>
+      <c r="B27" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="118"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="31"/>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="28" spans="1:13" s="32" customFormat="1" ht="141.75" customHeight="1" thickBot="1">
       <c r="A28" s="31"/>
-      <c r="B28" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
+      <c r="B28" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="121"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="31"/>
@@ -2237,19 +2237,19 @@
     </row>
     <row r="29" spans="1:13" s="35" customFormat="1" ht="82.5" customHeight="1" thickBot="1">
       <c r="A29" s="33"/>
-      <c r="B29" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="108"/>
+      <c r="B29" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I29" s="63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
@@ -2270,14 +2270,14 @@
     </row>
     <row r="31" spans="1:13" s="6" customFormat="1" ht="37.5" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="126"/>
+      <c r="B31" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="99"/>
       <c r="H31" s="42"/>
       <c r="I31" s="43"/>
       <c r="J31" s="4"/>
@@ -2302,20 +2302,20 @@
     </row>
     <row r="33" spans="1:13" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="124"/>
+      <c r="B33" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="101"/>
       <c r="H33" s="42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I33" s="43">
         <f>H33*26.39</f>
-        <v>184.73000000000002</v>
+        <v>79.17</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2324,12 +2324,12 @@
     </row>
     <row r="34" spans="1:13" s="6" customFormat="1" ht="37.5" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="124"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="101"/>
       <c r="H34" s="46"/>
       <c r="I34" s="43"/>
       <c r="J34" s="4"/>
@@ -2339,12 +2339,12 @@
     </row>
     <row r="35" spans="1:13" s="6" customFormat="1" ht="37.5" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="126"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="99"/>
       <c r="H35" s="46"/>
       <c r="I35" s="43"/>
       <c r="J35" s="4"/>
@@ -2354,12 +2354,12 @@
     </row>
     <row r="36" spans="1:13" s="6" customFormat="1" ht="37.5" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="119"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="42"/>
       <c r="I36" s="43"/>
       <c r="J36" s="4"/>
@@ -2369,12 +2369,12 @@
     </row>
     <row r="37" spans="1:13" s="6" customFormat="1" ht="37.5" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="126"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="99"/>
       <c r="H37" s="47"/>
       <c r="I37" s="48"/>
       <c r="J37" s="4"/>
@@ -2384,12 +2384,12 @@
     </row>
     <row r="38" spans="1:13" s="6" customFormat="1" ht="37.5" customHeight="1">
       <c r="A38" s="5"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="119"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="105"/>
       <c r="H38" s="65"/>
       <c r="I38" s="43"/>
       <c r="J38" s="4"/>
@@ -2399,12 +2399,12 @@
     </row>
     <row r="39" spans="1:13" s="6" customFormat="1" ht="37.5" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="119"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="105"/>
       <c r="H39" s="49"/>
       <c r="I39" s="50"/>
       <c r="J39" s="4"/>
@@ -2420,15 +2420,15 @@
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
       <c r="G40" s="53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="66">
         <f>SUM(H31:H39)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I40" s="67">
         <f>SUM(I29:I39)</f>
-        <v>184.73000000000002</v>
+        <v>79.17</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2445,7 +2445,7 @@
       <c r="G41" s="54"/>
       <c r="I41" s="68">
         <f>SUM(I40:I40)</f>
-        <v>184.73000000000002</v>
+        <v>79.17</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -2538,14 +2538,14 @@
     </row>
     <row r="48" spans="1:13" s="6" customFormat="1" ht="28.5" customHeight="1">
       <c r="A48" s="5"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
       <c r="J48" s="64"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -2553,16 +2553,16 @@
     </row>
     <row r="49" spans="1:13" s="6" customFormat="1" ht="28.5" customHeight="1">
       <c r="A49" s="5"/>
-      <c r="B49" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
+      <c r="B49" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -2584,20 +2584,20 @@
     </row>
     <row r="51" spans="1:13" s="6" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A51" s="5"/>
-      <c r="B51" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="122"/>
-      <c r="D51" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="149"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="120" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="121"/>
-      <c r="I51" s="122"/>
+      <c r="B51" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="107"/>
+      <c r="D51" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="95"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="106"/>
+      <c r="I51" s="107"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -2605,20 +2605,20 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="8"/>
-      <c r="B52" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="134"/>
-      <c r="D52" s="139" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="134"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="133" t="s">
+      <c r="B52" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="76"/>
+      <c r="D52" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="134"/>
-      <c r="I52" s="140"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="76"/>
+      <c r="I52" s="82"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -2626,16 +2626,16 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="8"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="145" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="146"/>
-      <c r="F53" s="147"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="143"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="91"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="88"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -2643,16 +2643,16 @@
     </row>
     <row r="54" spans="1:13" ht="24" thickBot="1">
       <c r="A54" s="8"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="138"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="142"/>
-      <c r="I54" s="143"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="80"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="88"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -2660,16 +2660,16 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="8"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="139" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="134"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="135"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="143"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="76"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="88"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="8"/>
-      <c r="B56" s="135"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="145" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="146"/>
-      <c r="F56" s="147"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="143"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="91"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="88"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -2694,16 +2694,16 @@
     </row>
     <row r="57" spans="1:13" ht="24" thickBot="1">
       <c r="A57" s="8"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="148" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="138"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="144"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="80"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="89"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="59" spans="1:13" ht="61.5" customHeight="1">
       <c r="A59" s="8"/>
-      <c r="B59" s="127" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="128"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
-      <c r="H59" s="128"/>
-      <c r="I59" s="128"/>
+      <c r="B59" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -3073,6 +3073,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B1:G10"/>
+    <mergeCell ref="H1:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B48:I48"/>
     <mergeCell ref="B59:I59"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
@@ -3089,45 +3128,6 @@
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="D57:F57"/>
     <mergeCell ref="D51:F51"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B1:G10"/>
-    <mergeCell ref="H1:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:I18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0.47244094488188981" top="0.43307086614173229" bottom="0.27559055118110237" header="0" footer="0.19685039370078741"/>
